--- a/project docs/Robot's expences.xlsx
+++ b/project docs/Robot's expences.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>expences for robot :</t>
   </si>
@@ -253,7 +253,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D7" activeCellId="0" pane="topLeft" sqref="D7"/>
+      <selection activeCell="A20" activeCellId="0" pane="topLeft" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -277,7 +277,7 @@
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>415.44</v>
+        <v>416.94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
@@ -436,7 +436,14 @@
         <v>12.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -456,7 +463,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A20:B20 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,7 +489,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A20:B20 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/project docs/Robot's expences.xlsx
+++ b/project docs/Robot's expences.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>expences for robot :</t>
   </si>
@@ -79,10 +79,25 @@
     <t>adafruit 16chan pwm board</t>
   </si>
   <si>
-    <t>½ price shipping</t>
+    <t>½ price for shipping</t>
   </si>
   <si>
     <t>microphone usb</t>
+  </si>
+  <si>
+    <t>capacitor</t>
+  </si>
+  <si>
+    <t>usb expander</t>
+  </si>
+  <si>
+    <t>Soldering-iron holder</t>
+  </si>
+  <si>
+    <t>lan cable</t>
+  </si>
+  <si>
+    <t>lan socket</t>
   </si>
 </sst>
 </file>
@@ -144,7 +159,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +170,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -192,7 +213,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -217,6 +238,14 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -230,6 +259,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -250,17 +283,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A20" activeCellId="0" pane="topLeft" sqref="A20:B20"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B27" activeCellId="0" pane="topLeft" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2874493927125"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5465587044534"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.331983805668"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.53441295546559"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.53441295546559"/>
@@ -277,7 +310,7 @@
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>416.94</v>
+        <v>456.44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
@@ -343,14 +376,11 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="7" t="n">
         <v>0.5</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
@@ -370,7 +400,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="n">
@@ -379,7 +409,7 @@
       <c r="E13" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="n">
@@ -388,7 +418,7 @@
       <c r="E14" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="5" t="n">
@@ -400,16 +430,16 @@
       <c r="E15" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="10" t="n">
         <v>28.68</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="6" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="17">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="n">
@@ -421,7 +451,7 @@
       <c r="A18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="11" t="n">
         <v>71.63</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -442,6 +472,54 @@
       </c>
       <c r="B20" s="1" t="n">
         <v>1.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="A22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="23">
+      <c r="A23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+      <c r="A24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="25">
+      <c r="A25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="26">
+      <c r="A26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +541,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A20:B20 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,7 +567,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A20:B20 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/project docs/Robot's expences.xlsx
+++ b/project docs/Robot's expences.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>expences for robot :</t>
   </si>
@@ -98,65 +97,49 @@
   </si>
   <si>
     <t>lan socket</t>
+  </si>
+  <si>
+    <t>3rd floor materials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.00" numFmtId="165"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF333333"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="4">
@@ -180,7 +163,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -188,399 +171,605 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B27" activeCellId="0" pane="topLeft" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2874493927125"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.331983805668"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.53441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.53441295546559"/>
+    <col min="1" max="1" width="28.28515625"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.28515625"/>
+    <col min="4" max="4" width="8.5703125"/>
+    <col min="5" max="5" width="14.5703125"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>456.44</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="E2">
+        <f>SUM(B:B)</f>
+        <v>481.9899999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
+      <c r="B3" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>3.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>3.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>0.3</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="5">
         <v>0.3</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>18.9</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+      <c r="B12" s="1">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>81</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>11.4</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="5">
         <v>8.1</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="10">
         <v>28.68</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>13.21</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="11">
         <v>71.63</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>12.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="5">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>3.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>1.9</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>25.55</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>